--- a/23-24_KBL_stats.xlsx
+++ b/23-24_KBL_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FE3B85-65B3-4B27-8130-F8AFB550239D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF0E7D1-1DF6-4907-87C4-65FC7C17B447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
+    <workbookView xWindow="28680" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,16 +833,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국내</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아시아쿼터</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국인</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1385,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="BO19" sqref="BO1:BO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1877,7 +1876,7 @@
         <v>17.010000000000002</v>
       </c>
       <c r="BO2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP2" s="18"/>
     </row>
@@ -2097,7 +2096,7 @@
         <v>12.16</v>
       </c>
       <c r="BO3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP3" s="18">
         <v>800000</v>
@@ -2319,7 +2318,7 @@
         <v>6.35</v>
       </c>
       <c r="BO4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP4" s="18">
         <v>55000</v>
@@ -2541,7 +2540,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="BO5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP5" s="18">
         <v>50000</v>
@@ -2763,7 +2762,7 @@
         <v>8.42</v>
       </c>
       <c r="BO6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP6" s="18">
         <v>19500</v>
@@ -2985,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP7" s="18">
         <v>45000</v>
@@ -3207,7 +3206,7 @@
         <v>10.33</v>
       </c>
       <c r="BO8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP8" s="18">
         <v>60000</v>
@@ -3429,7 +3428,7 @@
         <v>13.34</v>
       </c>
       <c r="BO9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP9" s="18">
         <v>123945</v>
@@ -3651,7 +3650,7 @@
         <v>14.66</v>
       </c>
       <c r="BO10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP10" s="18">
         <v>60000</v>
@@ -3873,7 +3872,7 @@
         <v>6.8</v>
       </c>
       <c r="BO11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP11" s="18">
         <v>750000</v>
@@ -4095,7 +4094,7 @@
         <v>12.1</v>
       </c>
       <c r="BO12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP12" s="18">
         <v>100000</v>
@@ -4317,7 +4316,7 @@
         <v>34.01</v>
       </c>
       <c r="BO13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP13" s="18"/>
     </row>
@@ -4537,7 +4536,7 @@
         <v>36.36</v>
       </c>
       <c r="BO14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP14" s="18">
         <v>60000</v>
@@ -4759,7 +4758,7 @@
         <v>10.54</v>
       </c>
       <c r="BO15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP15" s="18">
         <v>310000</v>
@@ -4981,7 +4980,7 @@
         <v>21.99</v>
       </c>
       <c r="BO16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP16" s="18">
         <v>200000</v>
@@ -5203,7 +5202,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="BO17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP17" s="18">
         <v>270000</v>
@@ -5425,7 +5424,7 @@
         <v>15.72</v>
       </c>
       <c r="BO18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.3">
@@ -5644,7 +5643,7 @@
         <v>10.25</v>
       </c>
       <c r="BO19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.3">
@@ -5863,7 +5862,7 @@
         <v>6.44</v>
       </c>
       <c r="BO20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.3">
@@ -6082,7 +6081,7 @@
         <v>11.603</v>
       </c>
       <c r="BO21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP21" s="18">
         <v>225000</v>
@@ -6304,7 +6303,7 @@
         <v>9.3979999999999997</v>
       </c>
       <c r="BO22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP22" s="18">
         <v>200000</v>
@@ -6526,7 +6525,7 @@
         <v>6.0439999999999996</v>
       </c>
       <c r="BO23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP23" s="18">
         <v>40000</v>
@@ -6748,7 +6747,7 @@
         <v>14.286</v>
       </c>
       <c r="BO24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP24" s="18">
         <v>40000</v>
@@ -6970,7 +6969,7 @@
         <v>12.637</v>
       </c>
       <c r="BO25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP25" s="18">
         <v>130000</v>
@@ -7192,7 +7191,7 @@
         <v>11.429</v>
       </c>
       <c r="BO26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP26" s="18"/>
     </row>
@@ -7412,7 +7411,7 @@
         <v>7.923</v>
       </c>
       <c r="BO27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP27" s="18">
         <v>38425</v>
@@ -7634,7 +7633,7 @@
         <v>10.372999999999999</v>
       </c>
       <c r="BO28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP28" s="18">
         <v>45000</v>
@@ -7856,7 +7855,7 @@
         <v>12.005000000000001</v>
       </c>
       <c r="BO29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP29" s="18">
         <v>45000</v>
@@ -8078,7 +8077,7 @@
         <v>11.872999999999999</v>
       </c>
       <c r="BO30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP30" s="18">
         <v>500000</v>
@@ -8300,7 +8299,7 @@
         <v>58.14</v>
       </c>
       <c r="BO31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP31" s="18">
         <v>40000</v>
@@ -8522,7 +8521,7 @@
         <v>7.9240000000000004</v>
       </c>
       <c r="BO32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP32" s="18">
         <v>750000</v>
@@ -8744,7 +8743,7 @@
         <v>28.571000000000002</v>
       </c>
       <c r="BO33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP33" s="18">
         <v>45000</v>
@@ -8966,7 +8965,7 @@
         <v>16.835000000000001</v>
       </c>
       <c r="BO34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP34" s="18">
         <v>65000</v>
@@ -9188,7 +9187,7 @@
         <v>8.3819999999999997</v>
       </c>
       <c r="BO35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP35" s="18">
         <v>47000</v>
@@ -9410,7 +9409,7 @@
         <v>11.967000000000001</v>
       </c>
       <c r="BO36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP36" s="18">
         <v>300000</v>
@@ -9632,7 +9631,7 @@
         <v>13.41</v>
       </c>
       <c r="BO37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP37" s="18">
         <v>80000</v>
@@ -9854,7 +9853,7 @@
         <v>14.071</v>
       </c>
       <c r="BO38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.3">
@@ -10073,7 +10072,7 @@
         <v>13.778</v>
       </c>
       <c r="BO39" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.3">
@@ -10292,7 +10291,7 @@
         <v>17.300999999999998</v>
       </c>
       <c r="BO40" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.3">
@@ -10511,7 +10510,7 @@
         <v>10.874000000000001</v>
       </c>
       <c r="BO41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP41" s="18">
         <v>113750</v>
@@ -10733,7 +10732,7 @@
         <v>18.878</v>
       </c>
       <c r="BO42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP42" s="18">
         <v>90000</v>
@@ -10955,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="BO43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP43" s="18">
         <v>48000</v>
@@ -11177,7 +11176,7 @@
         <v>5.8819999999999997</v>
       </c>
       <c r="BO44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP44" s="18">
         <v>40000</v>
@@ -11399,7 +11398,7 @@
         <v>10.744</v>
       </c>
       <c r="BO45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP45" s="18">
         <v>300000</v>
@@ -11621,7 +11620,7 @@
         <v>12.943</v>
       </c>
       <c r="BO46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP46" s="18">
         <v>90000</v>
@@ -11843,7 +11842,7 @@
         <v>17.140999999999998</v>
       </c>
       <c r="BO47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP47" s="18"/>
     </row>
@@ -12063,7 +12062,7 @@
         <v>15.266999999999999</v>
       </c>
       <c r="BO48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP48" s="18">
         <v>35000</v>
@@ -12285,7 +12284,7 @@
         <v>7.1429999999999998</v>
       </c>
       <c r="BO49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP49" s="18">
         <v>57000</v>
@@ -12507,7 +12506,7 @@
         <v>17.518000000000001</v>
       </c>
       <c r="BO50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP50" s="18">
         <v>75000</v>
@@ -12729,7 +12728,7 @@
         <v>12.5</v>
       </c>
       <c r="BO51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP51" s="18">
         <v>60000</v>
@@ -12951,7 +12950,7 @@
         <v>9.5020000000000007</v>
       </c>
       <c r="BO52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP52" s="18">
         <v>550000</v>
@@ -13173,7 +13172,7 @@
         <v>6.8780000000000001</v>
       </c>
       <c r="BO53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP53" s="18">
         <v>18861</v>
@@ -13395,7 +13394,7 @@
         <v>17.773</v>
       </c>
       <c r="BO54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP54" s="18">
         <v>100000</v>
@@ -13617,7 +13616,7 @@
         <v>16.995999999999999</v>
       </c>
       <c r="BO55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP55" s="18">
         <v>130000</v>
@@ -13839,7 +13838,7 @@
         <v>19.393000000000001</v>
       </c>
       <c r="BO56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP56" s="18">
         <v>240000</v>
@@ -14061,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="BO57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP57" s="18">
         <v>40000</v>
@@ -14283,7 +14282,7 @@
         <v>10.599</v>
       </c>
       <c r="BO58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.3">
@@ -14502,7 +14501,7 @@
         <v>15.173</v>
       </c>
       <c r="BO59" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.3">
@@ -14721,7 +14720,7 @@
         <v>7.9260000000000002</v>
       </c>
       <c r="BO60" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.3">
@@ -14940,7 +14939,7 @@
         <v>9.1240000000000006</v>
       </c>
       <c r="BO61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP61" s="18">
         <v>40000</v>
@@ -15162,7 +15161,7 @@
         <v>16.52</v>
       </c>
       <c r="BO62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP62" s="18">
         <v>50000</v>
@@ -15384,7 +15383,7 @@
         <v>12.5</v>
       </c>
       <c r="BO63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP63" s="18">
         <v>40000</v>
@@ -15606,7 +15605,7 @@
         <v>10.913</v>
       </c>
       <c r="BO64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP64" s="18">
         <v>284795</v>
@@ -15828,7 +15827,7 @@
         <v>14.302</v>
       </c>
       <c r="BO65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP65" s="18">
         <v>70000</v>
@@ -16050,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="BO66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP66" s="18">
         <v>40000</v>
@@ -16272,7 +16271,7 @@
         <v>5.66</v>
       </c>
       <c r="BO67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP67" s="18">
         <v>70000</v>
@@ -16494,7 +16493,7 @@
         <v>8.9540000000000006</v>
       </c>
       <c r="BO68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP68" s="18">
         <v>560000</v>
@@ -16716,7 +16715,7 @@
         <v>10.526</v>
       </c>
       <c r="BO69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP69" s="18"/>
     </row>
@@ -16936,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="BO70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP70" s="18">
         <v>70000</v>
@@ -17158,7 +17157,7 @@
         <v>10.968</v>
       </c>
       <c r="BO71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP71" s="18">
         <v>240000</v>
@@ -17380,7 +17379,7 @@
         <v>11.601000000000001</v>
       </c>
       <c r="BO72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP72" s="18">
         <v>100000</v>
@@ -17602,7 +17601,7 @@
         <v>13.755000000000001</v>
       </c>
       <c r="BO73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP73" s="18">
         <v>200000</v>
@@ -17824,7 +17823,7 @@
         <v>11.882</v>
       </c>
       <c r="BO74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP74" s="18">
         <v>600000</v>
@@ -18046,7 +18045,7 @@
         <v>11.409000000000001</v>
       </c>
       <c r="BO75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP75" s="18">
         <v>560000</v>
@@ -18268,7 +18267,7 @@
         <v>15.042</v>
       </c>
       <c r="BO76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:68" x14ac:dyDescent="0.3">
@@ -18487,7 +18486,7 @@
         <v>10.750999999999999</v>
       </c>
       <c r="BO77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:68" x14ac:dyDescent="0.3">
@@ -18706,7 +18705,7 @@
         <v>12.497</v>
       </c>
       <c r="BO78" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:68" x14ac:dyDescent="0.3">
@@ -18925,7 +18924,7 @@
         <v>60</v>
       </c>
       <c r="BO79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP79" s="18">
         <v>70000</v>
@@ -19147,7 +19146,7 @@
         <v>5.6689999999999996</v>
       </c>
       <c r="BO80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP80" s="18">
         <v>40000</v>
@@ -19369,7 +19368,7 @@
         <v>34.113</v>
       </c>
       <c r="BO81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP81" s="18">
         <v>80000</v>
@@ -19591,7 +19590,7 @@
         <v>16.204999999999998</v>
       </c>
       <c r="BO82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP82" s="18">
         <v>350000</v>
@@ -19813,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="BO83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP83" s="18">
         <v>40000</v>
@@ -20035,7 +20034,7 @@
         <v>8.7330000000000005</v>
       </c>
       <c r="BO84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP84" s="18">
         <v>60000</v>
@@ -20257,7 +20256,7 @@
         <v>8.0269999999999992</v>
       </c>
       <c r="BO85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP85" s="18">
         <v>80000</v>
@@ -20479,7 +20478,7 @@
         <v>14.659000000000001</v>
       </c>
       <c r="BO86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP86" s="18">
         <v>300000</v>
@@ -20701,7 +20700,7 @@
         <v>13.141999999999999</v>
       </c>
       <c r="BO87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP87" s="18">
         <v>150000</v>
@@ -20923,7 +20922,7 @@
         <v>15.579000000000001</v>
       </c>
       <c r="BO88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP88" s="18">
         <v>200000</v>
@@ -21145,7 +21144,7 @@
         <v>18.768999999999998</v>
       </c>
       <c r="BO89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP89" s="18">
         <v>80000</v>
@@ -21367,7 +21366,7 @@
         <v>11.45</v>
       </c>
       <c r="BO90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP90" s="18"/>
     </row>
@@ -21587,7 +21586,7 @@
         <v>13.635999999999999</v>
       </c>
       <c r="BO91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP91" s="18">
         <v>70000</v>
@@ -21809,7 +21808,7 @@
         <v>10.462</v>
       </c>
       <c r="BO92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP92" s="18">
         <v>130000</v>
@@ -22031,7 +22030,7 @@
         <v>14.368</v>
       </c>
       <c r="BO93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP93" s="18">
         <v>80000</v>
@@ -22253,7 +22252,7 @@
         <v>14.305999999999999</v>
       </c>
       <c r="BO94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:68" x14ac:dyDescent="0.3">
@@ -22472,7 +22471,7 @@
         <v>11.487</v>
       </c>
       <c r="BO95" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:68" x14ac:dyDescent="0.3">
@@ -22691,7 +22690,7 @@
         <v>12.897</v>
       </c>
       <c r="BO96" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:68" x14ac:dyDescent="0.3">
@@ -22910,7 +22909,7 @@
         <v>0</v>
       </c>
       <c r="BO97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP97" s="18">
         <v>40000</v>
@@ -23132,7 +23131,7 @@
         <v>13.38</v>
       </c>
       <c r="BO98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP98" s="18">
         <v>780000</v>
@@ -23354,7 +23353,7 @@
         <v>9.91</v>
       </c>
       <c r="BO99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP99" s="18"/>
     </row>
@@ -23574,7 +23573,7 @@
         <v>100</v>
       </c>
       <c r="BO100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP100" s="18">
         <v>70000</v>
@@ -23796,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="BO101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP101" s="18">
         <v>59671</v>
@@ -24018,7 +24017,7 @@
         <v>13.441000000000001</v>
       </c>
       <c r="BO102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP102" s="18">
         <v>60000</v>
@@ -24240,7 +24239,7 @@
         <v>11.55</v>
       </c>
       <c r="BO103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP103" s="18">
         <v>100000</v>
@@ -24462,7 +24461,7 @@
         <v>11.111000000000001</v>
       </c>
       <c r="BO104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP104" s="18">
         <v>19500</v>
@@ -24684,7 +24683,7 @@
         <v>17.23</v>
       </c>
       <c r="BO105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP105" s="18">
         <v>105000</v>
@@ -24906,7 +24905,7 @@
         <v>0</v>
       </c>
       <c r="BO106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP106" s="18">
         <v>40000</v>
@@ -25128,7 +25127,7 @@
         <v>13.67</v>
       </c>
       <c r="BO107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP107" s="18">
         <v>265000</v>
@@ -25350,7 +25349,7 @@
         <v>12.95</v>
       </c>
       <c r="BO108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP108" s="18">
         <v>95000</v>
@@ -25572,7 +25571,7 @@
         <v>25.95</v>
       </c>
       <c r="BO109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP109" s="18">
         <v>350000</v>
@@ -25794,7 +25793,7 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="BO110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP110" s="18">
         <v>200000</v>
@@ -26016,7 +26015,7 @@
         <v>10.33</v>
       </c>
       <c r="BO111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP111" s="18">
         <v>275000</v>
@@ -26238,7 +26237,7 @@
         <v>13.1</v>
       </c>
       <c r="BO112" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP112" s="18">
         <v>195288</v>
@@ -26460,7 +26459,7 @@
         <v>13.74</v>
       </c>
       <c r="BO113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:68" x14ac:dyDescent="0.3">
@@ -26679,7 +26678,7 @@
         <v>15.68</v>
       </c>
       <c r="BO114" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:68" x14ac:dyDescent="0.3">
@@ -26898,7 +26897,7 @@
         <v>12.15</v>
       </c>
       <c r="BO115" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:68" x14ac:dyDescent="0.3">
@@ -27117,7 +27116,7 @@
         <v>6.367</v>
       </c>
       <c r="BO116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP116" s="18">
         <v>55000</v>
@@ -27339,7 +27338,7 @@
         <v>8.11</v>
       </c>
       <c r="BO117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP117" s="18">
         <v>70000</v>
@@ -27561,7 +27560,7 @@
         <v>4.5960000000000001</v>
       </c>
       <c r="BO118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP118" s="18">
         <v>150000</v>
@@ -27783,7 +27782,7 @@
         <v>5.04</v>
       </c>
       <c r="BO119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP119" s="18">
         <v>60000</v>
@@ -28005,7 +28004,7 @@
         <v>11.848000000000001</v>
       </c>
       <c r="BO120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP120" s="18"/>
     </row>
@@ -28225,7 +28224,7 @@
         <v>14.423999999999999</v>
       </c>
       <c r="BO121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP121" s="18">
         <v>165000</v>
@@ -28447,7 +28446,7 @@
         <v>8.3770000000000007</v>
       </c>
       <c r="BO122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP122" s="18">
         <v>200000</v>
@@ -28669,7 +28668,7 @@
         <v>0</v>
       </c>
       <c r="BO123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP123" s="18">
         <v>45000</v>
@@ -28891,7 +28890,7 @@
         <v>15.432</v>
       </c>
       <c r="BO124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP124" s="18">
         <v>48000</v>
@@ -29113,7 +29112,7 @@
         <v>14.054</v>
       </c>
       <c r="BO125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP125" s="18">
         <v>150000</v>
@@ -29335,7 +29334,7 @@
         <v>13.441000000000001</v>
       </c>
       <c r="BO126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP126" s="18">
         <v>40000</v>
@@ -29557,7 +29556,7 @@
         <v>10.006</v>
       </c>
       <c r="BO127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP127" s="18">
         <v>110000</v>
@@ -29779,7 +29778,7 @@
         <v>9.6180000000000003</v>
       </c>
       <c r="BO128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP128" s="18">
         <v>500000</v>
@@ -30001,7 +30000,7 @@
         <v>12.268000000000001</v>
       </c>
       <c r="BO129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP129" s="18">
         <v>400000</v>
@@ -30223,7 +30222,7 @@
         <v>0</v>
       </c>
       <c r="BO130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP130" s="18">
         <v>180000</v>
@@ -30445,7 +30444,7 @@
         <v>12.528</v>
       </c>
       <c r="BO131" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:68" x14ac:dyDescent="0.3">
@@ -30664,7 +30663,7 @@
         <v>11.397</v>
       </c>
       <c r="BO132" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:68" x14ac:dyDescent="0.3">
@@ -30883,7 +30882,7 @@
         <v>12.509</v>
       </c>
       <c r="BO133" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:68" x14ac:dyDescent="0.3">
@@ -31102,7 +31101,7 @@
         <v>15.715</v>
       </c>
       <c r="BO134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP134" s="18">
         <v>75000</v>
@@ -31324,7 +31323,7 @@
         <v>18.561</v>
       </c>
       <c r="BO135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP135" s="18">
         <v>450000</v>
@@ -31546,7 +31545,7 @@
         <v>15.965999999999999</v>
       </c>
       <c r="BO136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP136" s="18">
         <v>190000</v>
@@ -31768,7 +31767,7 @@
         <v>18.858000000000001</v>
       </c>
       <c r="BO137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP137" s="18">
         <v>60000</v>
@@ -31990,7 +31989,7 @@
         <v>11.111000000000001</v>
       </c>
       <c r="BO138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP138" s="18">
         <v>70000</v>
@@ -32212,7 +32211,7 @@
         <v>9.5790000000000006</v>
       </c>
       <c r="BO139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP139" s="18">
         <v>53000</v>
@@ -32434,7 +32433,7 @@
         <v>19.114000000000001</v>
       </c>
       <c r="BO140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP140" s="18"/>
     </row>
@@ -32654,7 +32653,7 @@
         <v>20</v>
       </c>
       <c r="BO141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP141" s="18">
         <v>45000</v>
@@ -32876,7 +32875,7 @@
         <v>14.706</v>
       </c>
       <c r="BO142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP142" s="18">
         <v>270000</v>
@@ -33098,7 +33097,7 @@
         <v>9.0289999999999999</v>
       </c>
       <c r="BO143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP143" s="18">
         <v>85000</v>
@@ -33320,7 +33319,7 @@
         <v>9.5589999999999993</v>
       </c>
       <c r="BO144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP144" s="18">
         <v>190000</v>
@@ -33542,7 +33541,7 @@
         <v>12.52</v>
       </c>
       <c r="BO145" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP145" s="18">
         <v>330000</v>
@@ -33764,7 +33763,7 @@
         <v>9.5679999999999996</v>
       </c>
       <c r="BO146" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP146" s="18">
         <v>45000</v>
@@ -33986,7 +33985,7 @@
         <v>10.595000000000001</v>
       </c>
       <c r="BO147" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP147" s="18">
         <v>450000</v>
@@ -34208,7 +34207,7 @@
         <v>14.798</v>
       </c>
       <c r="BO148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:68" x14ac:dyDescent="0.3">
@@ -34427,7 +34426,7 @@
         <v>8.7059999999999995</v>
       </c>
       <c r="BO149" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:68" x14ac:dyDescent="0.3">
@@ -34646,7 +34645,7 @@
         <v>11.21</v>
       </c>
       <c r="BO150" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:68" x14ac:dyDescent="0.3">
@@ -34865,7 +34864,7 @@
         <v>18.974</v>
       </c>
       <c r="BO151" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP151" s="18">
         <v>400000</v>
@@ -35087,7 +35086,7 @@
         <v>8.0549999999999997</v>
       </c>
       <c r="BO152" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP152" s="18">
         <v>150000</v>
@@ -35309,7 +35308,7 @@
         <v>11.221</v>
       </c>
       <c r="BO153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP153" s="18">
         <v>500000</v>
@@ -35531,7 +35530,7 @@
         <v>29.126000000000001</v>
       </c>
       <c r="BO154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP154" s="18">
         <v>100000</v>
@@ -35753,7 +35752,7 @@
         <v>28.571000000000002</v>
       </c>
       <c r="BO155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP155" s="18">
         <v>35000</v>
@@ -35975,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="BO156" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP156" s="18">
         <v>32500</v>
@@ -36197,7 +36196,7 @@
         <v>12.946999999999999</v>
       </c>
       <c r="BO157" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP157" s="18">
         <v>400000</v>
@@ -36419,7 +36418,7 @@
         <v>21.917000000000002</v>
       </c>
       <c r="BO158" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP158" s="18">
         <v>40000</v>
@@ -36641,7 +36640,7 @@
         <v>6.8840000000000003</v>
       </c>
       <c r="BO159" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP159" s="18">
         <v>77000</v>
@@ -36863,7 +36862,7 @@
         <v>9.0909999999999993</v>
       </c>
       <c r="BO160" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP160" s="18">
         <v>160000</v>
@@ -37085,7 +37084,7 @@
         <v>14.561999999999999</v>
       </c>
       <c r="BO161" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP161" s="18">
         <v>200000</v>
@@ -37307,7 +37306,7 @@
         <v>20.187999999999999</v>
       </c>
       <c r="BO162" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP162" s="18">
         <v>61208</v>
@@ -37529,7 +37528,7 @@
         <v>14.241</v>
       </c>
       <c r="BO163" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP163" s="18">
         <v>27083</v>
@@ -37751,7 +37750,7 @@
         <v>20.492000000000001</v>
       </c>
       <c r="BO164" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP164" s="18">
         <v>50000</v>
@@ -37973,7 +37972,7 @@
         <v>9.1910000000000007</v>
       </c>
       <c r="BO165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP165" s="18">
         <v>50000</v>
@@ -38195,7 +38194,7 @@
         <v>0</v>
       </c>
       <c r="BO166" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP166" s="18">
         <v>40000</v>
@@ -38417,7 +38416,7 @@
         <v>0</v>
       </c>
       <c r="BO167" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP167" s="18"/>
     </row>
@@ -38637,7 +38636,7 @@
         <v>7.7789999999999999</v>
       </c>
       <c r="BO168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP168" s="18">
         <v>177000</v>
@@ -38859,7 +38858,7 @@
         <v>12.929</v>
       </c>
       <c r="BO169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:68" x14ac:dyDescent="0.3">
@@ -39078,7 +39077,7 @@
         <v>9.7970000000000006</v>
       </c>
       <c r="BO170" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:68" x14ac:dyDescent="0.3">
@@ -39297,7 +39296,7 @@
         <v>14.974</v>
       </c>
       <c r="BO171" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:68" x14ac:dyDescent="0.3">
@@ -39516,7 +39515,7 @@
         <v>25</v>
       </c>
       <c r="BO172" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP172" s="18">
         <v>40000</v>
@@ -39738,7 +39737,7 @@
         <v>0</v>
       </c>
       <c r="BO173" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP173" s="18">
         <v>45000</v>
@@ -39960,7 +39959,7 @@
         <v>17.212</v>
       </c>
       <c r="BO174" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP174" s="18">
         <v>45000</v>
@@ -40182,7 +40181,7 @@
         <v>15.651999999999999</v>
       </c>
       <c r="BO175" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP175" s="18">
         <v>100000</v>
@@ -40404,7 +40403,7 @@
         <v>10.816000000000001</v>
       </c>
       <c r="BO176" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP176" s="18">
         <v>750000</v>
@@ -40626,7 +40625,7 @@
         <v>7.2830000000000004</v>
       </c>
       <c r="BO177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP177" s="18"/>
     </row>
@@ -40846,7 +40845,7 @@
         <v>4.8860000000000001</v>
       </c>
       <c r="BO178" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP178" s="18">
         <v>75000</v>
@@ -41068,7 +41067,7 @@
         <v>7.2949999999999999</v>
       </c>
       <c r="BO179" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP179" s="18">
         <v>500000</v>
@@ -41290,7 +41289,7 @@
         <v>7.2889999999999997</v>
       </c>
       <c r="BO180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP180" s="18">
         <v>65000</v>
@@ -41512,7 +41511,7 @@
         <v>14.497999999999999</v>
       </c>
       <c r="BO181" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP181" s="18">
         <v>600000</v>
@@ -41734,7 +41733,7 @@
         <v>8.0909999999999993</v>
       </c>
       <c r="BO182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP182" s="18">
         <v>105000</v>
@@ -41956,7 +41955,7 @@
         <v>2.726</v>
       </c>
       <c r="BO183" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP183" s="18">
         <v>90000</v>
@@ -42178,7 +42177,7 @@
         <v>9.7889999999999997</v>
       </c>
       <c r="BO184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP184" s="18">
         <v>220000</v>
@@ -42400,7 +42399,7 @@
         <v>20</v>
       </c>
       <c r="BO185" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BP185" s="18">
         <v>94000</v>
@@ -42622,7 +42621,7 @@
         <v>16.152999999999999</v>
       </c>
       <c r="BO186" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:68" x14ac:dyDescent="0.3">
@@ -42841,7 +42840,7 @@
         <v>12.183999999999999</v>
       </c>
       <c r="BO187" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:68" x14ac:dyDescent="0.3">
@@ -43060,7 +43059,7 @@
         <v>12.298999999999999</v>
       </c>
       <c r="BO188" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="1:68" x14ac:dyDescent="0.3">
@@ -43279,7 +43278,7 @@
         <v>13.459</v>
       </c>
       <c r="BO189" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:68" x14ac:dyDescent="0.3">

--- a/23-24_KBL_stats.xlsx
+++ b/23-24_KBL_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6366A77-63B7-4DF3-9A29-7D701DAEB354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA42940-6BD1-465D-9612-C370255DFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="272">
   <si>
     <t>Season</t>
   </si>
@@ -866,6 +866,10 @@
   <si>
     <t>창원 LG</t>
   </si>
+  <si>
+    <t>아시아쿼터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1422,10 +1426,10 @@
   <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="BO3" sqref="BO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1921,7 +1925,7 @@
         <v>15.71621014818141</v>
       </c>
       <c r="BO2" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="BP2" s="18"/>
     </row>
@@ -45090,7 +45094,7 @@
         <v>168</v>
       </c>
       <c r="I194" s="5">
-        <f t="shared" ref="I194:I225" si="139">H194/$D194</f>
+        <f t="shared" ref="I194:I197" si="139">H194/$D194</f>
         <v>4.666666666666667</v>
       </c>
       <c r="J194" s="2">
@@ -45169,56 +45173,56 @@
         <v>100</v>
       </c>
       <c r="AE194" s="5">
-        <f t="shared" ref="AE194:AE225" si="140">AD194/$D194</f>
+        <f t="shared" ref="AE194:AE197" si="140">AD194/$D194</f>
         <v>2.7777777777777777</v>
       </c>
       <c r="AF194" s="4">
         <v>38</v>
       </c>
       <c r="AG194" s="5">
-        <f t="shared" ref="AG194:AG225" si="141">AF194/$D194</f>
+        <f t="shared" ref="AG194:AG197" si="141">AF194/$D194</f>
         <v>1.0555555555555556</v>
       </c>
       <c r="AH194" s="4">
         <v>62</v>
       </c>
       <c r="AI194" s="5">
-        <f t="shared" ref="AI194:AI225" si="142">AH194/$D194</f>
+        <f t="shared" ref="AI194:AI197" si="142">AH194/$D194</f>
         <v>1.7222222222222223</v>
       </c>
       <c r="AJ194" s="4">
         <v>38</v>
       </c>
       <c r="AK194" s="5">
-        <f t="shared" ref="AK194:AK225" si="143">AJ194/$D194</f>
+        <f t="shared" ref="AK194:AK197" si="143">AJ194/$D194</f>
         <v>1.0555555555555556</v>
       </c>
       <c r="AL194" s="4">
         <v>12</v>
       </c>
       <c r="AM194" s="5">
-        <f t="shared" ref="AM194:AM225" si="144">AL194/$D194</f>
+        <f t="shared" ref="AM194:AM197" si="144">AL194/$D194</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="AN194" s="4">
         <v>2</v>
       </c>
       <c r="AO194" s="5">
-        <f t="shared" ref="AO194:AO225" si="145">AN194/$D194</f>
+        <f t="shared" ref="AO194:AO197" si="145">AN194/$D194</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AP194" s="10">
         <v>16</v>
       </c>
       <c r="AQ194" s="5">
-        <f t="shared" ref="AQ194:AQ225" si="146">AP194/$D194</f>
+        <f t="shared" ref="AQ194:AQ197" si="146">AP194/$D194</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="AR194" s="4">
         <v>83</v>
       </c>
       <c r="AS194" s="5">
-        <f t="shared" ref="AS194:AS225" si="147">AR194/$D194</f>
+        <f t="shared" ref="AS194:AS197" si="147">AR194/$D194</f>
         <v>2.3055555555555554</v>
       </c>
       <c r="AT194" s="6">

--- a/23-24_KBL_stats.xlsx
+++ b/23-24_KBL_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28829"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA42940-6BD1-465D-9612-C370255DFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D25F3D-A31D-4326-9C33-6DCDB49D995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
@@ -1426,10 +1426,10 @@
   <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AP178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BO3" sqref="BO3"/>
+      <selection pane="bottomRight" activeCell="AW109" sqref="AW109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24013,15 +24013,33 @@
         <f t="shared" si="88"/>
         <v>1.7407407407407407</v>
       </c>
-      <c r="AT100" s="6"/>
-      <c r="AU100" s="6"/>
-      <c r="AV100" s="6"/>
-      <c r="AW100" s="6"/>
-      <c r="AX100" s="6"/>
-      <c r="AY100" s="6"/>
-      <c r="AZ100" s="6"/>
-      <c r="BA100" s="6"/>
-      <c r="BB100" s="6"/>
+      <c r="AT100" s="6">
+        <v>1.2790322702076373</v>
+      </c>
+      <c r="AU100" s="6">
+        <v>7.4405600361119095E-2</v>
+      </c>
+      <c r="AV100" s="6">
+        <v>0.82948216225557192</v>
+      </c>
+      <c r="AW100" s="6">
+        <v>0.4495501079520654</v>
+      </c>
+      <c r="AX100" s="6">
+        <v>110.25839432733086</v>
+      </c>
+      <c r="AY100" s="6">
+        <v>113.45847832849637</v>
+      </c>
+      <c r="AZ100" s="6">
+        <v>6.6975629008991646</v>
+      </c>
+      <c r="BA100" s="6">
+        <v>12.185185185185185</v>
+      </c>
+      <c r="BB100" s="6">
+        <v>19.139034322280395</v>
+      </c>
       <c r="BC100" s="7">
         <v>0.55783991228070173</v>
       </c>

--- a/23-24_KBL_stats.xlsx
+++ b/23-24_KBL_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\2025\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05ECB3-949C-459B-A066-61963D06E03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A195BF6-69F6-46F9-9D12-7CDE81A32C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C857A6F3-DAC3-47BF-9FFB-2634F9EBE6C3}"/>
   </bookViews>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>송창용</t>
-  </si>
-  <si>
-    <t>고메즈 딜 리아노</t>
   </si>
   <si>
     <t>김형빈</t>
@@ -855,9 +852,6 @@
     <t>수원 KT</t>
   </si>
   <si>
-    <t>울산 모비즈</t>
-  </si>
-  <si>
     <t>원주 DB</t>
   </si>
   <si>
@@ -918,6 +912,13 @@
   <si>
     <t>정관장 to 가스공사</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 모비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고메즈 델 리아노</t>
   </si>
 </sst>
 </file>
@@ -1514,10 +1515,10 @@
   <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BB176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D185" sqref="D185"/>
+      <selection pane="bottomRight" activeCell="BD13" sqref="BD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,58 +1616,58 @@
         <v>8</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>245</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>14</v>
@@ -1786,10 +1787,10 @@
         <v>52</v>
       </c>
       <c r="BO1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BP1" s="29" t="s">
         <v>239</v>
-      </c>
-      <c r="BP1" s="29" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.3">
@@ -1797,10 +1798,10 @@
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="D2" s="15">
         <v>17</v>
@@ -2014,7 +2015,7 @@
         <v>15.71621014818141</v>
       </c>
       <c r="BO2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
@@ -2022,10 +2023,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4">
         <v>7</v>
@@ -2238,7 +2239,7 @@
         <v>17.006802721088437</v>
       </c>
       <c r="BO3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.3">
@@ -2246,7 +2247,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -2463,7 +2464,7 @@
         <v>12.159533073929962</v>
       </c>
       <c r="BO4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP4" s="17">
         <v>800000</v>
@@ -2474,10 +2475,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="4">
         <v>23</v>
@@ -2691,7 +2692,7 @@
         <v>6.3451776649746199</v>
       </c>
       <c r="BO5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP5" s="17">
         <v>55000</v>
@@ -2702,7 +2703,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
@@ -2919,7 +2920,7 @@
         <v>10.250569476082005</v>
       </c>
       <c r="BO6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
@@ -2927,10 +2928,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4">
         <v>8</v>
@@ -3144,7 +3145,7 @@
         <v>10.121457489878543</v>
       </c>
       <c r="BO7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP7" s="17">
         <v>50000</v>
@@ -3155,10 +3156,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -3350,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP8" s="17">
         <v>19500</v>
@@ -3361,10 +3362,10 @@
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -3576,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP9" s="17">
         <v>45000</v>
@@ -3587,7 +3588,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>64</v>
@@ -3804,7 +3805,7 @@
         <v>10.330578512396695</v>
       </c>
       <c r="BO10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP10" s="17">
         <v>60000</v>
@@ -3815,7 +3816,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -4032,7 +4033,7 @@
         <v>13.34303736050461</v>
       </c>
       <c r="BO11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP11" s="17">
         <v>123945</v>
@@ -4043,7 +4044,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>63</v>
@@ -4260,7 +4261,7 @@
         <v>14.66022766471197</v>
       </c>
       <c r="BO12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP12" s="17">
         <v>60000</v>
@@ -4271,7 +4272,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>55</v>
@@ -4488,7 +4489,7 @@
         <v>6.7978246960972486</v>
       </c>
       <c r="BO13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP13" s="17">
         <v>750000</v>
@@ -4499,7 +4500,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>60</v>
@@ -4716,7 +4717,7 @@
         <v>12.096774193548386</v>
       </c>
       <c r="BO14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP14" s="17">
         <v>100000</v>
@@ -4727,10 +4728,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4">
         <v>6</v>
@@ -4944,7 +4945,7 @@
         <v>34.013605442176875</v>
       </c>
       <c r="BO15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
@@ -4952,7 +4953,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>54</v>
@@ -5169,7 +5170,7 @@
         <v>6.4392511622063067</v>
       </c>
       <c r="BO16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.3">
@@ -5177,10 +5178,10 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -5393,7 +5394,7 @@
         <v>36.363636363636367</v>
       </c>
       <c r="BO17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP17" s="17">
         <v>60000</v>
@@ -5404,7 +5405,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>56</v>
@@ -5621,7 +5622,7 @@
         <v>10.544217687074831</v>
       </c>
       <c r="BO18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP18" s="17">
         <v>310000</v>
@@ -5632,7 +5633,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>57</v>
@@ -5849,7 +5850,7 @@
         <v>21.994134897360702</v>
       </c>
       <c r="BO19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP19" s="17">
         <v>200000</v>
@@ -5860,7 +5861,7 @@
         <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>58</v>
@@ -6077,7 +6078,7 @@
         <v>8.0348943985307617</v>
       </c>
       <c r="BO20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP20" s="17">
         <v>270000</v>
@@ -6088,10 +6089,10 @@
         <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="15">
         <v>4</v>
@@ -6283,7 +6284,7 @@
         <v>22.522522522522525</v>
       </c>
       <c r="BO21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP21" s="17">
         <v>80000</v>
@@ -6294,10 +6295,10 @@
         <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -6510,7 +6511,7 @@
         <v>25</v>
       </c>
       <c r="BO22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP22" s="17">
         <v>40000</v>
@@ -6521,10 +6522,10 @@
         <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="4">
         <v>10</v>
@@ -6738,7 +6739,7 @@
         <v>12.184315463003987</v>
       </c>
       <c r="BO23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.3">
@@ -6746,10 +6747,10 @@
         <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -6960,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="BO24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP24" s="17">
         <v>45000</v>
@@ -6971,10 +6972,10 @@
         <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="4">
         <v>31</v>
@@ -7188,7 +7189,7 @@
         <v>17.21170395869191</v>
       </c>
       <c r="BO25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP25" s="17">
         <v>45000</v>
@@ -7199,10 +7200,10 @@
         <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" s="4">
         <v>40</v>
@@ -7416,7 +7417,7 @@
         <v>12.298530649232958</v>
       </c>
       <c r="BO26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.3">
@@ -7424,10 +7425,10 @@
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="15">
         <v>53</v>
@@ -7641,7 +7642,7 @@
         <v>15.651901706057286</v>
       </c>
       <c r="BO27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP27" s="17">
         <v>100000</v>
@@ -7652,10 +7653,10 @@
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="4">
         <v>54</v>
@@ -7869,7 +7870,7 @@
         <v>10.816429735348654</v>
       </c>
       <c r="BO28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP28" s="17">
         <v>750000</v>
@@ -7880,10 +7881,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="4">
         <v>52</v>
@@ -8097,7 +8098,7 @@
         <v>7.282563462338743</v>
       </c>
       <c r="BO29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.3">
@@ -8105,10 +8106,10 @@
         <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="4">
         <v>18</v>
@@ -8322,7 +8323,7 @@
         <v>4.8859934853420199</v>
       </c>
       <c r="BO30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP30" s="17">
         <v>75000</v>
@@ -8333,10 +8334,10 @@
         <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="4">
         <v>54</v>
@@ -8550,7 +8551,7 @@
         <v>7.2951739618406286</v>
       </c>
       <c r="BO31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP31" s="17">
         <v>500000</v>
@@ -8561,10 +8562,10 @@
         <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D32" s="4">
         <v>21</v>
@@ -8778,7 +8779,7 @@
         <v>7.2886297376093303</v>
       </c>
       <c r="BO32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP32" s="17">
         <v>65000</v>
@@ -8789,10 +8790,10 @@
         <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33" s="4">
         <v>54</v>
@@ -9006,7 +9007,7 @@
         <v>14.498484249373929</v>
       </c>
       <c r="BO33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP33" s="17">
         <v>600000</v>
@@ -9017,10 +9018,10 @@
         <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" s="4">
         <v>18</v>
@@ -9234,7 +9235,7 @@
         <v>8.0906148867313927</v>
       </c>
       <c r="BO34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP34" s="17">
         <v>105000</v>
@@ -9245,10 +9246,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" s="4">
         <v>53</v>
@@ -9462,7 +9463,7 @@
         <v>16.153081510934395</v>
       </c>
       <c r="BO35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.3">
@@ -9470,10 +9471,10 @@
         <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" s="4">
         <v>47</v>
@@ -9687,7 +9688,7 @@
         <v>2.7262813522355507</v>
       </c>
       <c r="BO36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP36" s="17">
         <v>90000</v>
@@ -9698,10 +9699,10 @@
         <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" s="4">
         <v>54</v>
@@ -9915,7 +9916,7 @@
         <v>9.7888407215774009</v>
       </c>
       <c r="BO37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP37" s="17">
         <v>220000</v>
@@ -9926,10 +9927,10 @@
         <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D38" s="15">
         <v>4</v>
@@ -10142,7 +10143,7 @@
         <v>20</v>
       </c>
       <c r="BO38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP38" s="17">
         <v>94000</v>
@@ -10153,10 +10154,10 @@
         <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" s="15">
         <v>34</v>
@@ -10370,7 +10371,7 @@
         <v>13.458508403361344</v>
       </c>
       <c r="BO39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.3">
@@ -10378,10 +10379,10 @@
         <v>53</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="4">
         <v>51</v>
@@ -10595,7 +10596,7 @@
         <v>18.973978543711482</v>
       </c>
       <c r="BO40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP40" s="17">
         <v>400000</v>
@@ -10606,10 +10607,10 @@
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="4">
         <v>46</v>
@@ -10823,7 +10824,7 @@
         <v>8.0545229244113994</v>
       </c>
       <c r="BO41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP41" s="17">
         <v>150000</v>
@@ -10834,10 +10835,10 @@
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="14">
         <v>49</v>
@@ -11051,7 +11052,7 @@
         <v>11.22064598861906</v>
       </c>
       <c r="BO42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP42" s="17">
         <v>500000</v>
@@ -11062,10 +11063,10 @@
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" s="16">
         <v>27</v>
@@ -11279,7 +11280,7 @@
         <v>29.126213592233007</v>
       </c>
       <c r="BO43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP43" s="17">
         <v>100000</v>
@@ -11290,10 +11291,10 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="16">
         <v>2</v>
@@ -11506,7 +11507,7 @@
         <v>28.571428571428573</v>
       </c>
       <c r="BO44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP44" s="17">
         <v>35000</v>
@@ -11517,10 +11518,10 @@
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="16">
         <v>9</v>
@@ -11734,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="BO45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP45" s="17">
         <v>32500</v>
@@ -11745,10 +11746,10 @@
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="16">
         <v>11</v>
@@ -11962,7 +11963,7 @@
         <v>12.946659761781461</v>
       </c>
       <c r="BO46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP46" s="17">
         <v>400000</v>
@@ -11973,10 +11974,10 @@
         <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="16">
         <v>53</v>
@@ -12190,7 +12191,7 @@
         <v>9.7972244193571587</v>
       </c>
       <c r="BO47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:68" x14ac:dyDescent="0.3">
@@ -12198,10 +12199,10 @@
         <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="16">
         <v>24</v>
@@ -12415,7 +12416,7 @@
         <v>21.917007597895967</v>
       </c>
       <c r="BO48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:68" x14ac:dyDescent="0.3">
@@ -12423,10 +12424,10 @@
         <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="16">
         <v>54</v>
@@ -12640,7 +12641,7 @@
         <v>6.8838916934373566</v>
       </c>
       <c r="BO49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP49" s="17">
         <v>77000</v>
@@ -12651,10 +12652,10 @@
         <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="16">
         <v>9</v>
@@ -12867,7 +12868,7 @@
         <v>9.0909090909090917</v>
       </c>
       <c r="BO50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP50" s="17">
         <v>160000</v>
@@ -12878,10 +12879,10 @@
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="16">
         <v>44</v>
@@ -13095,7 +13096,7 @@
         <v>14.561618638871856</v>
       </c>
       <c r="BO51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP51" s="17">
         <v>200000</v>
@@ -13106,10 +13107,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D52" s="16">
         <v>21</v>
@@ -13323,7 +13324,7 @@
         <v>20.188425302826381</v>
       </c>
       <c r="BO52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP52" s="17">
         <v>61208</v>
@@ -13334,10 +13335,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="16">
         <v>54</v>
@@ -13551,7 +13552,7 @@
         <v>12.929176842407699</v>
       </c>
       <c r="BO53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:68" x14ac:dyDescent="0.3">
@@ -13559,10 +13560,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D54" s="16">
         <v>18</v>
@@ -13574,14 +13575,14 @@
         <v>46</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" ref="G54:G85" si="62">(E54*60+F54)*D54</f>
+        <f t="shared" ref="G54:G82" si="62">(E54*60+F54)*D54</f>
         <v>9468</v>
       </c>
       <c r="H54" s="2">
         <v>59</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" ref="I54:I85" si="63">H54/$D54</f>
+        <f t="shared" ref="I54:I82" si="63">H54/$D54</f>
         <v>3.2777777777777777</v>
       </c>
       <c r="J54" s="2">
@@ -13660,56 +13661,56 @@
         <v>17</v>
       </c>
       <c r="AE54" s="5">
-        <f t="shared" ref="AE54:AE85" si="72">AD54/$D54</f>
+        <f t="shared" ref="AE54:AE82" si="72">AD54/$D54</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="AF54" s="4">
         <v>10</v>
       </c>
       <c r="AG54" s="5">
-        <f t="shared" ref="AG54:AG85" si="73">AF54/$D54</f>
+        <f t="shared" ref="AG54:AG82" si="73">AF54/$D54</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="AH54" s="4">
         <v>7</v>
       </c>
       <c r="AI54" s="5">
-        <f t="shared" ref="AI54:AI85" si="74">AH54/$D54</f>
+        <f t="shared" ref="AI54:AI82" si="74">AH54/$D54</f>
         <v>0.3888888888888889</v>
       </c>
       <c r="AJ54" s="4">
         <v>8</v>
       </c>
       <c r="AK54" s="5">
-        <f t="shared" ref="AK54:AK85" si="75">AJ54/$D54</f>
+        <f t="shared" ref="AK54:AK82" si="75">AJ54/$D54</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="AL54" s="4">
         <v>4</v>
       </c>
       <c r="AM54" s="5">
-        <f t="shared" ref="AM54:AM85" si="76">AL54/$D54</f>
+        <f t="shared" ref="AM54:AM82" si="76">AL54/$D54</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="AN54" s="4">
         <v>0</v>
       </c>
       <c r="AO54" s="5">
-        <f t="shared" ref="AO54:AO85" si="77">AN54/$D54</f>
+        <f t="shared" ref="AO54:AO82" si="77">AN54/$D54</f>
         <v>0</v>
       </c>
       <c r="AP54" s="10">
         <v>9</v>
       </c>
       <c r="AQ54" s="5">
-        <f t="shared" ref="AQ54:AQ85" si="78">AP54/$D54</f>
+        <f t="shared" ref="AQ54:AQ82" si="78">AP54/$D54</f>
         <v>0.5</v>
       </c>
       <c r="AR54" s="4">
         <v>16</v>
       </c>
       <c r="AS54" s="5">
-        <f t="shared" ref="AS54:AS85" si="79">AR54/$D54</f>
+        <f t="shared" ref="AS54:AS82" si="79">AR54/$D54</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="AT54" s="6">
@@ -13776,7 +13777,7 @@
         <v>14.240506329113924</v>
       </c>
       <c r="BO54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP54" s="17">
         <v>27083</v>
@@ -13787,10 +13788,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" s="16">
         <v>4</v>
@@ -14003,7 +14004,7 @@
         <v>20.491803278688526</v>
       </c>
       <c r="BO55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP55" s="17">
         <v>50000</v>
@@ -14014,10 +14015,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D56" s="16">
         <v>3</v>
@@ -14231,7 +14232,7 @@
         <v>9.1911764705882355</v>
       </c>
       <c r="BO56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP56" s="17">
         <v>50000</v>
@@ -14242,10 +14243,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="16">
         <v>2</v>
@@ -14457,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="BO57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP57" s="17">
         <v>40000</v>
@@ -14468,10 +14469,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="16">
         <v>48</v>
@@ -14685,7 +14686,7 @@
         <v>14.974230394205323</v>
       </c>
       <c r="BO58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.3">
@@ -14693,10 +14694,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="16">
         <v>1</v>
@@ -14906,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="BO59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.3">
@@ -14914,10 +14915,10 @@
         <v>53</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D60" s="16">
         <v>52</v>
@@ -15131,7 +15132,7 @@
         <v>7.7790742901594712</v>
       </c>
       <c r="BO60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP60" s="17">
         <v>177000</v>
@@ -15142,10 +15143,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="16">
         <v>54</v>
@@ -15359,7 +15360,7 @@
         <v>8.7062158331646078</v>
       </c>
       <c r="BO61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.3">
@@ -15367,10 +15368,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D62" s="4">
         <v>52</v>
@@ -15584,7 +15585,7 @@
         <v>15.71489452375879</v>
       </c>
       <c r="BO62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP62" s="17">
         <v>75000</v>
@@ -15595,10 +15596,10 @@
         <v>53</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" s="4">
         <v>39</v>
@@ -15812,7 +15813,7 @@
         <v>18.561484918793504</v>
       </c>
       <c r="BO63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP63" s="17">
         <v>450000</v>
@@ -15823,10 +15824,10 @@
         <v>53</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D64" s="4">
         <v>43</v>
@@ -16040,7 +16041,7 @@
         <v>15.965732087227414</v>
       </c>
       <c r="BO64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP64" s="17">
         <v>190000</v>
@@ -16051,10 +16052,10 @@
         <v>53</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="4">
         <v>39</v>
@@ -16268,7 +16269,7 @@
         <v>18.857758620689651</v>
       </c>
       <c r="BO65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP65" s="17">
         <v>60000</v>
@@ -16279,10 +16280,10 @@
         <v>53</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="4">
         <v>6</v>
@@ -16495,7 +16496,7 @@
         <v>11.111111111111111</v>
       </c>
       <c r="BO66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP66" s="17">
         <v>70000</v>
@@ -16506,10 +16507,10 @@
         <v>53</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67" s="4">
         <v>24</v>
@@ -16723,7 +16724,7 @@
         <v>9.5785440613026811</v>
       </c>
       <c r="BO67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP67" s="17">
         <v>53000</v>
@@ -16734,10 +16735,10 @@
         <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="4">
         <v>21</v>
@@ -16951,7 +16952,7 @@
         <v>14.797902925756807</v>
       </c>
       <c r="BO68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:68" x14ac:dyDescent="0.3">
@@ -16959,10 +16960,10 @@
         <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -17176,7 +17177,7 @@
         <v>19.114458518772111</v>
       </c>
       <c r="BO69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:68" x14ac:dyDescent="0.3">
@@ -17184,10 +17185,10 @@
         <v>53</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="4">
         <v>7</v>
@@ -17400,7 +17401,7 @@
         <v>20</v>
       </c>
       <c r="BO70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP70" s="17">
         <v>45000</v>
@@ -17411,10 +17412,10 @@
         <v>53</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="15">
         <v>4</v>
@@ -17627,7 +17628,7 @@
         <v>14.705882352941176</v>
       </c>
       <c r="BO71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP71" s="17">
         <v>270000</v>
@@ -17638,10 +17639,10 @@
         <v>53</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" s="15">
         <v>27</v>
@@ -17855,7 +17856,7 @@
         <v>9.0285301552907189</v>
       </c>
       <c r="BO72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP72" s="17">
         <v>85000</v>
@@ -17866,10 +17867,10 @@
         <v>53</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" s="4">
         <v>52</v>
@@ -18083,7 +18084,7 @@
         <v>9.5593000648088129</v>
       </c>
       <c r="BO73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP73" s="17">
         <v>190000</v>
@@ -18094,10 +18095,10 @@
         <v>53</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D74" s="4">
         <v>50</v>
@@ -18311,7 +18312,7 @@
         <v>12.51967377307197</v>
       </c>
       <c r="BO74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP74" s="17">
         <v>330000</v>
@@ -18322,10 +18323,10 @@
         <v>53</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D75" s="4">
         <v>41</v>
@@ -18539,7 +18540,7 @@
         <v>9.5683606208802896</v>
       </c>
       <c r="BO75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP75" s="17">
         <v>350000</v>
@@ -18550,10 +18551,10 @@
         <v>53</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="4">
         <v>48</v>
@@ -18767,7 +18768,7 @@
         <v>11.210083015209356</v>
       </c>
       <c r="BO76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:68" x14ac:dyDescent="0.3">
@@ -18775,10 +18776,10 @@
         <v>53</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D77" s="15">
         <v>53</v>
@@ -18992,7 +18993,7 @@
         <v>10.594540695500436</v>
       </c>
       <c r="BO77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP77" s="17">
         <v>450000</v>
@@ -19003,10 +19004,10 @@
         <v>53</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="4">
         <v>32</v>
@@ -19220,7 +19221,7 @@
         <v>6.3667232597623089</v>
       </c>
       <c r="BO78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP78" s="17">
         <v>55000</v>
@@ -19231,10 +19232,10 @@
         <v>53</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="4">
         <v>39</v>
@@ -19448,7 +19449,7 @@
         <v>8.1098615916955019</v>
       </c>
       <c r="BO79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP79" s="17">
         <v>70000</v>
@@ -19459,10 +19460,10 @@
         <v>53</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="4">
         <v>14</v>
@@ -19676,7 +19677,7 @@
         <v>4.5955882352941178</v>
       </c>
       <c r="BO80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP80" s="17">
         <v>150000</v>
@@ -19687,10 +19688,10 @@
         <v>53</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="4">
         <v>22</v>
@@ -19904,7 +19905,7 @@
         <v>5.040322580645161</v>
       </c>
       <c r="BO81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP81" s="17">
         <v>60000</v>
@@ -19915,10 +19916,10 @@
         <v>53</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="4">
         <v>14</v>
@@ -20132,7 +20133,7 @@
         <v>11.848341232227487</v>
       </c>
       <c r="BO82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:68" x14ac:dyDescent="0.3">
@@ -20140,10 +20141,10 @@
         <v>53</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D83" s="15">
         <v>13</v>
@@ -20335,7 +20336,7 @@
         <v>15.220700152207002</v>
       </c>
       <c r="BO83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:68" x14ac:dyDescent="0.3">
@@ -20343,10 +20344,10 @@
         <v>53</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D84" s="4">
         <v>30</v>
@@ -20560,7 +20561,7 @@
         <v>12.528188423953898</v>
       </c>
       <c r="BO84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:68" x14ac:dyDescent="0.3">
@@ -20568,10 +20569,10 @@
         <v>53</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D85" s="4">
         <v>32</v>
@@ -20785,7 +20786,7 @@
         <v>11.396823135550965</v>
       </c>
       <c r="BO85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:68" x14ac:dyDescent="0.3">
@@ -20793,10 +20794,10 @@
         <v>53</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D86" s="4">
         <v>53</v>
@@ -21010,7 +21011,7 @@
         <v>14.423660876958582</v>
       </c>
       <c r="BO86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP86" s="17">
         <v>300000</v>
@@ -21021,10 +21022,10 @@
         <v>53</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87" s="15">
         <v>36</v>
@@ -21237,7 +21238,7 @@
         <v>8.3766608896591563</v>
       </c>
       <c r="BO87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP87" s="17">
         <v>200000</v>
@@ -21248,10 +21249,10 @@
         <v>53</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -21463,7 +21464,7 @@
         <v>0</v>
       </c>
       <c r="BO88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP88" s="17">
         <v>45000</v>
@@ -21474,10 +21475,10 @@
         <v>53</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D89" s="4">
         <v>27</v>
@@ -21691,7 +21692,7 @@
         <v>15.432098765432098</v>
       </c>
       <c r="BO89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP89" s="17">
         <v>48000</v>
@@ -21702,10 +21703,10 @@
         <v>53</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D90" s="4">
         <v>52</v>
@@ -21919,7 +21920,7 @@
         <v>14.054054054054054</v>
       </c>
       <c r="BO90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP90" s="17">
         <v>150000</v>
@@ -21930,10 +21931,10 @@
         <v>53</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D91" s="4">
         <v>17</v>
@@ -22147,7 +22148,7 @@
         <v>12.508934953538242</v>
       </c>
       <c r="BO91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:68" x14ac:dyDescent="0.3">
@@ -22155,10 +22156,10 @@
         <v>53</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D92" s="4">
         <v>11</v>
@@ -22372,7 +22373,7 @@
         <v>13.440860215053762</v>
       </c>
       <c r="BO92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP92" s="17">
         <v>40000</v>
@@ -22383,10 +22384,10 @@
         <v>53</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D93" s="4">
         <v>45</v>
@@ -22600,7 +22601,7 @@
         <v>10.006319780914263</v>
       </c>
       <c r="BO93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP93" s="17">
         <v>110000</v>
@@ -22611,10 +22612,10 @@
         <v>53</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" s="4">
         <v>49</v>
@@ -22828,7 +22829,7 @@
         <v>9.6177971062975676</v>
       </c>
       <c r="BO94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP94" s="17">
         <v>500000</v>
@@ -22839,10 +22840,10 @@
         <v>53</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -23034,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="BO95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP95" s="17">
         <v>45000</v>
@@ -23045,10 +23046,10 @@
         <v>53</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D96" s="4">
         <v>49</v>
@@ -23262,7 +23263,7 @@
         <v>12.267975250693405</v>
       </c>
       <c r="BO96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP96" s="17">
         <v>400000</v>
@@ -23273,10 +23274,10 @@
         <v>53</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D97" s="15">
         <v>5</v>
@@ -23489,7 +23490,7 @@
         <v>0</v>
       </c>
       <c r="BO97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:68" x14ac:dyDescent="0.3">
@@ -23497,10 +23498,10 @@
         <v>53</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D98" s="4">
         <v>17</v>
@@ -23714,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="BO98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP98" s="17">
         <v>40000</v>
@@ -23725,10 +23726,10 @@
         <v>53</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D99" s="4">
         <v>50</v>
@@ -23941,7 +23942,7 @@
         <v>15.678449258836945</v>
       </c>
       <c r="BO99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:68" x14ac:dyDescent="0.3">
@@ -23949,10 +23950,10 @@
         <v>53</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D100" s="15">
         <v>44</v>
@@ -24166,7 +24167,7 @@
         <v>13.376717281272594</v>
       </c>
       <c r="BO100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP100" s="17">
         <v>780000</v>
@@ -24177,10 +24178,10 @@
         <v>53</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D101" s="4">
         <v>52</v>
@@ -24394,7 +24395,7 @@
         <v>9.9133499779703325</v>
       </c>
       <c r="BO101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:68" x14ac:dyDescent="0.3">
@@ -24402,10 +24403,10 @@
         <v>53</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -24616,7 +24617,7 @@
         <v>100</v>
       </c>
       <c r="BO102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP102" s="17">
         <v>40000</v>
@@ -24627,10 +24628,10 @@
         <v>53</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D103" s="4">
         <v>2</v>
@@ -24843,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="BO103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP103" s="17">
         <v>59671</v>
@@ -24854,10 +24855,10 @@
         <v>53</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D104" s="4">
         <v>5</v>
@@ -25070,7 +25071,7 @@
         <v>13.440860215053762</v>
       </c>
       <c r="BO104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP104" s="17">
         <v>60000</v>
@@ -25081,10 +25082,10 @@
         <v>53</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D105" s="4">
         <v>23</v>
@@ -25298,7 +25299,7 @@
         <v>13.741297178453646</v>
       </c>
       <c r="BO105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:68" x14ac:dyDescent="0.3">
@@ -25306,10 +25307,10 @@
         <v>53</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D106" s="4">
         <v>45</v>
@@ -25523,7 +25524,7 @@
         <v>11.544920235096557</v>
       </c>
       <c r="BO106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP106" s="17">
         <v>100000</v>
@@ -25534,10 +25535,10 @@
         <v>53</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D107" s="4">
         <v>14</v>
@@ -25750,7 +25751,7 @@
         <v>11.111111111111111</v>
       </c>
       <c r="BO107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP107" s="17">
         <v>19500</v>
@@ -25761,10 +25762,10 @@
         <v>53</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D108" s="4">
         <v>27</v>
@@ -25978,7 +25979,7 @@
         <v>17.226528854435831</v>
       </c>
       <c r="BO108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP108" s="17">
         <v>105000</v>
@@ -25989,10 +25990,10 @@
         <v>53</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -26204,7 +26205,7 @@
         <v>0</v>
       </c>
       <c r="BO109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP109" s="17">
         <v>40000</v>
@@ -26215,10 +26216,10 @@
         <v>53</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D110" s="4">
         <v>54</v>
@@ -26432,7 +26433,7 @@
         <v>13.667696695982885</v>
       </c>
       <c r="BO110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP110" s="17">
         <v>265000</v>
@@ -26443,10 +26444,10 @@
         <v>53</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D111" s="4">
         <v>35</v>
@@ -26660,7 +26661,7 @@
         <v>12.953367875647668</v>
       </c>
       <c r="BO111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP111" s="17">
         <v>95000</v>
@@ -26671,10 +26672,10 @@
         <v>53</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D112" s="4">
         <v>3</v>
@@ -26887,7 +26888,7 @@
         <v>25</v>
       </c>
       <c r="BO112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP112" s="17">
         <v>45000</v>
@@ -26898,10 +26899,10 @@
         <v>53</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D113" s="4">
         <v>42</v>
@@ -27115,7 +27116,7 @@
         <v>25.951557093425606</v>
       </c>
       <c r="BO113" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP113" s="17">
         <v>47000</v>
@@ -27126,10 +27127,10 @@
         <v>53</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D114" s="4">
         <v>54</v>
@@ -27343,7 +27344,7 @@
         <v>12.14592780166068</v>
       </c>
       <c r="BO114" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:68" x14ac:dyDescent="0.3">
@@ -27351,10 +27352,10 @@
         <v>53</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D115" s="4">
         <v>45</v>
@@ -27568,7 +27569,7 @@
         <v>9.4575629995728843</v>
       </c>
       <c r="BO115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP115" s="17">
         <v>200000</v>
@@ -27579,10 +27580,10 @@
         <v>53</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D116" s="15">
         <v>52</v>
@@ -27796,7 +27797,7 @@
         <v>10.330578512396695</v>
       </c>
       <c r="BO116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP116" s="17">
         <v>275000</v>
@@ -27807,10 +27808,10 @@
         <v>53</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D117" s="4">
         <v>27</v>
@@ -28024,7 +28025,7 @@
         <v>13.101476893758932</v>
       </c>
       <c r="BO117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP117" s="17">
         <v>195288</v>
@@ -28035,10 +28036,10 @@
         <v>53</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D118" s="4">
         <v>6</v>
@@ -28251,7 +28252,7 @@
         <v>60</v>
       </c>
       <c r="BO118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP118" s="17">
         <v>70000</v>
@@ -28262,10 +28263,10 @@
         <v>53</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D119" s="4">
         <v>3</v>
@@ -28477,7 +28478,7 @@
         <v>0</v>
       </c>
       <c r="BO119" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:68" x14ac:dyDescent="0.3">
@@ -28485,10 +28486,10 @@
         <v>53</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D120" s="4">
         <v>11</v>
@@ -28702,7 +28703,7 @@
         <v>5.6689342403628116</v>
       </c>
       <c r="BO120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP120" s="17">
         <v>40000</v>
@@ -28713,10 +28714,10 @@
         <v>53</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D121" s="4">
         <v>24</v>
@@ -28929,7 +28930,7 @@
         <v>34.113060428849906</v>
       </c>
       <c r="BO121" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP121" s="17">
         <v>80000</v>
@@ -28940,10 +28941,10 @@
         <v>53</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D122" s="4">
         <v>36</v>
@@ -29157,7 +29158,7 @@
         <v>16.204661426010208</v>
       </c>
       <c r="BO122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP122" s="17">
         <v>350000</v>
@@ -29168,10 +29169,10 @@
         <v>53</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D123" s="4">
         <v>2</v>
@@ -29384,7 +29385,7 @@
         <v>20</v>
       </c>
       <c r="BO123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP123" s="17">
         <v>40000</v>
@@ -29395,10 +29396,10 @@
         <v>53</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D124" s="15">
         <v>2</v>
@@ -29610,7 +29611,7 @@
         <v>0</v>
       </c>
       <c r="BO124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP124" s="17">
         <v>40000</v>
@@ -29621,10 +29622,10 @@
         <v>53</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D125" s="4">
         <v>3</v>
@@ -29816,7 +29817,7 @@
         <v>10.121457489878543</v>
       </c>
       <c r="BO125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP125" s="17">
         <v>19500</v>
@@ -29827,10 +29828,10 @@
         <v>53</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D126" s="4">
         <v>43</v>
@@ -30044,7 +30045,7 @@
         <v>8.732534930139721</v>
       </c>
       <c r="BO126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP126" s="17">
         <v>60000</v>
@@ -30055,10 +30056,10 @@
         <v>53</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D127" s="4">
         <v>36</v>
@@ -30272,7 +30273,7 @@
         <v>14.306151645207439</v>
       </c>
       <c r="BO127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:68" x14ac:dyDescent="0.3">
@@ -30280,10 +30281,10 @@
         <v>53</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D128" s="4">
         <v>44</v>
@@ -30497,7 +30498,7 @@
         <v>8.0266732526549767</v>
       </c>
       <c r="BO128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP128" s="17">
         <v>80000</v>
@@ -30508,10 +30509,10 @@
         <v>53</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D129" s="4">
         <v>54</v>
@@ -30725,7 +30726,7 @@
         <v>14.659449706811005</v>
       </c>
       <c r="BO129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP129" s="17">
         <v>300000</v>
@@ -30736,10 +30737,10 @@
         <v>53</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D130" s="4">
         <v>54</v>
@@ -30953,7 +30954,7 @@
         <v>11.487210905192221</v>
       </c>
       <c r="BO130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:68" x14ac:dyDescent="0.3">
@@ -30961,10 +30962,10 @@
         <v>53</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D131" s="4">
         <v>40</v>
@@ -31178,7 +31179,7 @@
         <v>13.141620284477428</v>
       </c>
       <c r="BO131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP131" s="17">
         <v>150000</v>
@@ -31189,10 +31190,10 @@
         <v>53</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D132" s="4">
         <v>54</v>
@@ -31406,7 +31407,7 @@
         <v>15.578971221391344</v>
       </c>
       <c r="BO132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP132" s="17">
         <v>500000</v>
@@ -31417,10 +31418,10 @@
         <v>53</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D133" s="15">
         <v>11</v>
@@ -31633,7 +31634,7 @@
         <v>18.768768768768769</v>
       </c>
       <c r="BO133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP133" s="17">
         <v>80000</v>
@@ -31644,10 +31645,10 @@
         <v>53</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D134" s="4">
         <v>19</v>
@@ -31861,7 +31862,7 @@
         <v>11.450381679389313</v>
       </c>
       <c r="BO134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:68" x14ac:dyDescent="0.3">
@@ -31869,10 +31870,10 @@
         <v>53</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D135" s="4">
         <v>22</v>
@@ -32086,7 +32087,7 @@
         <v>13.636363636363637</v>
       </c>
       <c r="BO135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP135" s="17">
         <v>70000</v>
@@ -32097,10 +32098,10 @@
         <v>53</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D136" s="4">
         <v>52</v>
@@ -32314,7 +32315,7 @@
         <v>10.461760461760463</v>
       </c>
       <c r="BO136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP136" s="17">
         <v>130000</v>
@@ -32325,10 +32326,10 @@
         <v>53</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D137" s="4">
         <v>48</v>
@@ -32542,7 +32543,7 @@
         <v>12.897442464600637</v>
       </c>
       <c r="BO137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:68" x14ac:dyDescent="0.3">
@@ -32550,10 +32551,10 @@
         <v>53</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D138" s="4">
         <v>30</v>
@@ -32745,7 +32746,7 @@
         <v>13.963360142984808</v>
       </c>
       <c r="BO138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP138" s="17">
         <v>80000</v>
@@ -32756,10 +32757,10 @@
         <v>53</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D139" s="22">
         <v>6</v>
@@ -32951,7 +32952,7 @@
         <v>5.0607287449392713</v>
       </c>
       <c r="BO139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP139" s="17">
         <v>19500</v>
@@ -32962,10 +32963,10 @@
         <v>53</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D140" s="4">
         <v>20</v>
@@ -33179,7 +33180,7 @@
         <v>2.7886224205242609</v>
       </c>
       <c r="BO140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP140" s="17">
         <v>40000</v>
@@ -33190,10 +33191,10 @@
         <v>53</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D141" s="4">
         <v>15</v>
@@ -33407,7 +33408,7 @@
         <v>9.0036014405762312</v>
       </c>
       <c r="BO141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP141" s="17">
         <v>50000</v>
@@ -33418,10 +33419,10 @@
         <v>53</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D142" s="15">
         <v>53</v>
@@ -33635,7 +33636,7 @@
         <v>2.473257898967415</v>
       </c>
       <c r="BO142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="1:68" x14ac:dyDescent="0.3">
@@ -33643,10 +33644,10 @@
         <v>53</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D143" s="4">
         <v>2</v>
@@ -33858,7 +33859,7 @@
         <v>12.5</v>
       </c>
       <c r="BO143" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP143" s="17">
         <v>40000</v>
@@ -33869,10 +33870,10 @@
         <v>53</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D144" s="4">
         <v>28</v>
@@ -34086,7 +34087,7 @@
         <v>6.0726156993096394</v>
       </c>
       <c r="BO144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP144" s="17">
         <v>284795</v>
@@ -34097,10 +34098,10 @@
         <v>53</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D145" s="4">
         <v>20</v>
@@ -34314,7 +34315,7 @@
         <v>16.685205784204673</v>
       </c>
       <c r="BO145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP145" s="17">
         <v>70000</v>
@@ -34325,10 +34326,10 @@
         <v>53</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D146" s="4">
         <v>53</v>
@@ -34542,7 +34543,7 @@
         <v>5.6412185031966908</v>
       </c>
       <c r="BO146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:68" x14ac:dyDescent="0.3">
@@ -34550,10 +34551,10 @@
         <v>53</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D147" s="4">
         <v>21</v>
@@ -34767,7 +34768,7 @@
         <v>6.983240223463687</v>
       </c>
       <c r="BO147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP147" s="17">
         <v>40000</v>
@@ -34778,10 +34779,10 @@
         <v>53</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D148" s="4">
         <v>53</v>
@@ -34995,7 +34996,7 @@
         <v>9.3892073532318641</v>
       </c>
       <c r="BO148" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP148" s="17">
         <v>70000</v>
@@ -35006,10 +35007,10 @@
         <v>53</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D149" s="4">
         <v>54</v>
@@ -35223,7 +35224,7 @@
         <v>7.105877575880621</v>
       </c>
       <c r="BO149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP149" s="17">
         <v>560000</v>
@@ -35234,10 +35235,10 @@
         <v>53</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D150" s="4">
         <v>8</v>
@@ -35450,7 +35451,7 @@
         <v>10.526315789473685</v>
       </c>
       <c r="BO150" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:68" x14ac:dyDescent="0.3">
@@ -35458,10 +35459,10 @@
         <v>53</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D151" s="15">
         <v>3</v>
@@ -35674,7 +35675,7 @@
         <v>25</v>
       </c>
       <c r="BO151" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP151" s="17">
         <v>70000</v>
@@ -35685,10 +35686,10 @@
         <v>53</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D152" s="4">
         <v>48</v>
@@ -35902,7 +35903,7 @@
         <v>6.5417626125183164</v>
       </c>
       <c r="BO152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP152" s="17">
         <v>240000</v>
@@ -35913,10 +35914,10 @@
         <v>53</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D153" s="4">
         <v>24</v>
@@ -36130,7 +36131,7 @@
         <v>8.0450522928399035</v>
       </c>
       <c r="BO153" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP153" s="17">
         <v>100000</v>
@@ -36141,10 +36142,10 @@
         <v>53</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D154" s="4">
         <v>48</v>
@@ -36358,7 +36359,7 @@
         <v>6.8273092369477908</v>
       </c>
       <c r="BO154" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP154" s="17">
         <v>200000</v>
@@ -36369,10 +36370,10 @@
         <v>53</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D155" s="4">
         <v>35</v>
@@ -36586,7 +36587,7 @@
         <v>4.1220115416323164</v>
       </c>
       <c r="BO155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP155" s="17">
         <v>600000</v>
@@ -36597,10 +36598,10 @@
         <v>53</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D156" s="4">
         <v>21</v>
@@ -36814,7 +36815,7 @@
         <v>18.71042026482441</v>
       </c>
       <c r="BO156" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:68" x14ac:dyDescent="0.3">
@@ -36822,10 +36823,10 @@
         <v>53</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D157" s="4">
         <v>52</v>
@@ -37039,7 +37040,7 @@
         <v>3.4954171197762931</v>
       </c>
       <c r="BO157" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP157" s="17">
         <v>560000</v>
@@ -37050,10 +37051,10 @@
         <v>53</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D158" s="4">
         <v>33</v>
@@ -37267,7 +37268,7 @@
         <v>10.87441445460629</v>
       </c>
       <c r="BO158" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP158" s="17">
         <v>113750</v>
@@ -37278,10 +37279,10 @@
         <v>53</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D159" s="4">
         <v>33</v>
@@ -37495,7 +37496,7 @@
         <v>18.878101402373247</v>
       </c>
       <c r="BO159" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP159" s="17">
         <v>90000</v>
@@ -37506,10 +37507,10 @@
         <v>53</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D160" s="4">
         <v>5</v>
@@ -37721,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="BO160" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP160" s="17">
         <v>48000</v>
@@ -37732,10 +37733,10 @@
         <v>53</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D161" s="4">
         <v>2</v>
@@ -37945,7 +37946,7 @@
         <v>0</v>
       </c>
       <c r="BO161" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:68" x14ac:dyDescent="0.3">
@@ -37953,10 +37954,10 @@
         <v>53</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D162" s="4">
         <v>40</v>
@@ -38148,7 +38149,7 @@
         <v>15.159574468085106</v>
       </c>
       <c r="BO162" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:68" x14ac:dyDescent="0.3">
@@ -38156,10 +38157,10 @@
         <v>53</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D163" s="4">
         <v>35</v>
@@ -38372,7 +38373,7 @@
         <v>5.882352941176471</v>
       </c>
       <c r="BO163" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP163" s="17">
         <v>70000</v>
@@ -38383,10 +38384,10 @@
         <v>53</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D164" s="4">
         <v>39</v>
@@ -38600,7 +38601,7 @@
         <v>10.744023636852003</v>
       </c>
       <c r="BO164" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP164" s="17">
         <v>165000</v>
@@ -38611,10 +38612,10 @@
         <v>53</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D165" s="4">
         <v>52</v>
@@ -38828,7 +38829,7 @@
         <v>10.599164536442423</v>
       </c>
       <c r="BO165" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:68" x14ac:dyDescent="0.3">
@@ -38836,10 +38837,10 @@
         <v>53</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D166" s="4">
         <v>53</v>
@@ -39053,7 +39054,7 @@
         <v>12.943473094551011</v>
       </c>
       <c r="BO166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP166" s="17">
         <v>90000</v>
@@ -39064,10 +39065,10 @@
         <v>53</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D167" s="4">
         <v>23</v>
@@ -39281,7 +39282,7 @@
         <v>17.140898183064792</v>
       </c>
       <c r="BO167" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" spans="1:68" x14ac:dyDescent="0.3">
@@ -39289,10 +39290,10 @@
         <v>53</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D168" s="15">
         <v>24</v>
@@ -39506,7 +39507,7 @@
         <v>15.267175572519085</v>
       </c>
       <c r="BO168" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP168" s="17">
         <v>35000</v>
@@ -39517,10 +39518,10 @@
         <v>53</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D169" s="4">
         <v>49</v>
@@ -39734,7 +39735,7 @@
         <v>7.9262564584311885</v>
       </c>
       <c r="BO169" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170" spans="1:68" x14ac:dyDescent="0.3">
@@ -39742,10 +39743,10 @@
         <v>53</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D170" s="15">
         <v>16</v>
@@ -39958,7 +39959,7 @@
         <v>7.1428571428571432</v>
       </c>
       <c r="BO170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP170" s="17">
         <v>57000</v>
@@ -39969,10 +39970,10 @@
         <v>53</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D171" s="4">
         <v>37</v>
@@ -40186,7 +40187,7 @@
         <v>17.517517517517518</v>
       </c>
       <c r="BO171" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP171" s="17">
         <v>75000</v>
@@ -40197,10 +40198,10 @@
         <v>53</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D172" s="4">
         <v>12</v>
@@ -40413,7 +40414,7 @@
         <v>12.5</v>
       </c>
       <c r="BO172" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP172" s="17">
         <v>60000</v>
@@ -40424,10 +40425,10 @@
         <v>53</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D173" s="4">
         <v>39</v>
@@ -40641,7 +40642,7 @@
         <v>9.5023424379032981</v>
       </c>
       <c r="BO173" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP173" s="17">
         <v>550000</v>
@@ -40652,10 +40653,10 @@
         <v>53</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D174" s="4">
         <v>12</v>
@@ -40869,7 +40870,7 @@
         <v>6.8775790921595599</v>
       </c>
       <c r="BO174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP174" s="17">
         <v>18861</v>
@@ -40880,10 +40881,10 @@
         <v>53</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D175" s="4">
         <v>6</v>
@@ -41097,7 +41098,7 @@
         <v>17.772511848341228</v>
       </c>
       <c r="BO175" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP175" s="17">
         <v>100000</v>
@@ -41108,10 +41109,10 @@
         <v>53</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D176" s="4">
         <v>29</v>
@@ -41325,7 +41326,7 @@
         <v>16.996291718170582</v>
       </c>
       <c r="BO176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP176" s="17">
         <v>130000</v>
@@ -41336,10 +41337,10 @@
         <v>53</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D177" s="15">
         <v>45</v>
@@ -41553,7 +41554,7 @@
         <v>19.392639049348077</v>
       </c>
       <c r="BO177" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP177" s="17">
         <v>240000</v>
@@ -41564,10 +41565,10 @@
         <v>53</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D178" s="4">
         <v>6</v>
@@ -41779,7 +41780,7 @@
         <v>0</v>
       </c>
       <c r="BO178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP178" s="17">
         <v>40000</v>
@@ -41790,10 +41791,10 @@
         <v>53</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D179" s="15">
         <v>46</v>
@@ -42006,7 +42007,7 @@
         <v>11.602850986242334</v>
       </c>
       <c r="BO179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP179" s="17">
         <v>225000</v>
@@ -42017,10 +42018,10 @@
         <v>53</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D180" s="15">
         <v>47</v>
@@ -42234,7 +42235,7 @@
         <v>9.3984962406015047</v>
       </c>
       <c r="BO180" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP180" s="17">
         <v>200000</v>
@@ -42245,10 +42246,10 @@
         <v>53</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D181" s="4">
         <v>27</v>
@@ -42462,7 +42463,7 @@
         <v>6.0435132957292508</v>
       </c>
       <c r="BO181" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP181" s="17">
         <v>40000</v>
@@ -42473,10 +42474,10 @@
         <v>53</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D182" s="4">
         <v>5</v>
@@ -42688,7 +42689,7 @@
         <v>14.285714285714286</v>
       </c>
       <c r="BO182" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP182" s="17">
         <v>60000</v>
@@ -42699,10 +42700,10 @@
         <v>53</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D183" s="4">
         <v>33</v>
@@ -42916,7 +42917,7 @@
         <v>12.636899747262007</v>
       </c>
       <c r="BO183" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP183" s="17">
         <v>130000</v>
@@ -42927,10 +42928,10 @@
         <v>53</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D184" s="4">
         <v>16</v>
@@ -43144,7 +43145,7 @@
         <v>13.777900248002204</v>
       </c>
       <c r="BO184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:68" x14ac:dyDescent="0.3">
@@ -43152,10 +43153,10 @@
         <v>53</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D185" s="4">
         <v>22</v>
@@ -43368,7 +43369,7 @@
         <v>11.428571428571429</v>
       </c>
       <c r="BO185" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:68" x14ac:dyDescent="0.3">
@@ -43376,10 +43377,10 @@
         <v>53</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D186" s="4">
         <v>22</v>
@@ -43593,7 +43594,7 @@
         <v>7.922535211267606</v>
       </c>
       <c r="BO186" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP186" s="17">
         <v>38425</v>
@@ -43604,10 +43605,10 @@
         <v>53</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D187" s="4">
         <v>38</v>
@@ -43821,7 +43822,7 @@
         <v>10.373443983402488</v>
       </c>
       <c r="BO187" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP187" s="17">
         <v>45000</v>
@@ -43832,10 +43833,10 @@
         <v>53</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D188" s="4">
         <v>27</v>
@@ -44049,7 +44050,7 @@
         <v>12.004801920768307</v>
       </c>
       <c r="BO188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP188" s="17">
         <v>45000</v>
@@ -44060,10 +44061,10 @@
         <v>53</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D189" s="4">
         <v>11</v>
@@ -44277,7 +44278,7 @@
         <v>14.071294559099437</v>
       </c>
       <c r="BO189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:68" x14ac:dyDescent="0.3">
@@ -44285,10 +44286,10 @@
         <v>53</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D190" s="4">
         <v>44</v>
@@ -44502,7 +44503,7 @@
         <v>11.872959335114277</v>
       </c>
       <c r="BO190" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP190" s="17">
         <v>200000</v>
@@ -44513,10 +44514,10 @@
         <v>53</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D191" s="4">
         <v>9</v>
@@ -44730,7 +44731,7 @@
         <v>58.139534883720934</v>
       </c>
       <c r="BO191" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP191" s="17">
         <v>40000</v>
@@ -44741,10 +44742,10 @@
         <v>53</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D192" s="4">
         <v>30</v>
@@ -44958,7 +44959,7 @@
         <v>7.924335378323109</v>
       </c>
       <c r="BO192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP192" s="17">
         <v>750000</v>
@@ -44969,10 +44970,10 @@
         <v>53</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D193" s="4">
         <v>8</v>
@@ -45164,7 +45165,7 @@
         <v>28.571428571428573</v>
       </c>
       <c r="BO193" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP193" s="17">
         <v>45000</v>
@@ -45175,10 +45176,10 @@
         <v>53</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D194" s="4">
         <v>14</v>
@@ -45392,7 +45393,7 @@
         <v>16.835016835016834</v>
       </c>
       <c r="BO194" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP194" s="17">
         <v>65000</v>
@@ -45403,10 +45404,10 @@
         <v>53</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D195" s="4">
         <v>36</v>
@@ -45620,7 +45621,7 @@
         <v>8.3822296730930432</v>
       </c>
       <c r="BO195" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP195" s="17">
         <v>180000</v>
@@ -45631,10 +45632,10 @@
         <v>53</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D196" s="4">
         <v>44</v>
@@ -45848,7 +45849,7 @@
         <v>17.300630825722624</v>
       </c>
       <c r="BO196" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" spans="1:68" x14ac:dyDescent="0.3">
@@ -45856,10 +45857,10 @@
         <v>53</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D197" s="4">
         <v>43</v>
@@ -46073,7 +46074,7 @@
         <v>11.966927763272411</v>
       </c>
       <c r="BO197" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP197" s="17">
         <v>300000</v>
@@ -46084,10 +46085,10 @@
         <v>53</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D198" s="4">
         <v>35</v>
@@ -46301,7 +46302,7 @@
         <v>13.409961685823754</v>
       </c>
       <c r="BO198" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP198" s="17">
         <v>80000</v>
@@ -46312,10 +46313,10 @@
         <v>53</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D199" s="22">
         <v>34</v>
@@ -46507,7 +46508,7 @@
         <v>14.970320422930421</v>
       </c>
       <c r="BO199" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP199" s="17">
         <v>80000</v>
@@ -46518,10 +46519,10 @@
         <v>53</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D200" s="22">
         <v>9</v>
@@ -46713,7 +46714,7 @@
         <v>25.396825396825399</v>
       </c>
       <c r="BO200" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP200" s="17">
         <v>45000</v>
@@ -46724,10 +46725,10 @@
         <v>53</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D201" s="22">
         <v>53</v>
@@ -46919,7 +46920,7 @@
         <v>15.174567560416891</v>
       </c>
       <c r="BO201" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
